--- a/SCG_RC11_040REG_方式処分対象書類選択：方式処分対象書類選択作成更新画面群/SCG_RC11_040REG_方式処分対象書類選択：方式処分対象書類選択作成更新画面群/クライアント/P-030-01_ストア定義書/P-030-01_ストア定義書_SCG_RC11_040REG.xlsx
+++ b/SCG_RC11_040REG_方式処分対象書類選択：方式処分対象書類選択作成更新画面群/SCG_RC11_040REG_方式処分対象書類選択：方式処分対象書類選択作成更新画面群/クライアント/P-030-01_ストア定義書/P-030-01_ストア定義書_SCG_RC11_040REG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ＱＧＨ\Desktop\SCG_RC11_040REG_方式処分対象書類選択：方式処分対象書類選択作成更新画面群\SCG_RC11_040REG_方式処分対象書類選択：方式処分対象書類選択作成更新画面群\クライアント\P-030-01_ストア定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220BB930-0801-4664-A522-5980BD6D1A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C75365-A283-4EEF-8B05-E9E4E575B868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="157">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -969,6 +969,10 @@
   </si>
   <si>
     <t>FncRc11Scg0040ServiceDoUpdate_PF_080Out</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FncRc11Scg0040ServiceDoHyoujiOut</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1288,7 +1292,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ヘッダ!$B$2:$E$5" spid="_x0000_s13641"/>
+                  <a14:cameraTool cellRange="ヘッダ!$B$2:$E$5" spid="_x0000_s13643"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1353,7 +1357,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ヘッダ!$B$2:$E$5" spid="_x0000_s13642"/>
+                  <a14:cameraTool cellRange="ヘッダ!$B$2:$E$5" spid="_x0000_s13644"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1423,7 +1427,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ヘッダ!$B$2:$E$5" spid="_x0000_s10629"/>
+                  <a14:cameraTool cellRange="ヘッダ!$B$2:$E$5" spid="_x0000_s10630"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2741,8 +2745,8 @@
   </sheetPr>
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2855,7 +2859,7 @@
         <v>58</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>46</v>
@@ -3352,6 +3356,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="16403ad3-3079-457d-b24b-c3aae32518ad" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="63636d3d-5f1b-4c7c-a44c-8528696103f9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_Flow_SignoffStatus xmlns="63636d3d-5f1b-4c7c-a44c-8528696103f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100C0F7CDB5D3552D49A2563C81A23DC6D0" ma:contentTypeVersion="20" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="a09c142156b33130d7cb7a4a96f136bf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="63636d3d-5f1b-4c7c-a44c-8528696103f9" xmlns:ns3="16403ad3-3079-457d-b24b-c3aae32518ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="91fee1be74657c7b8595eb7e0ae2e67d" ns2:_="" ns3:_="">
     <xsd:import namespace="63636d3d-5f1b-4c7c-a44c-8528696103f9"/>
@@ -3594,18 +3610,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="16403ad3-3079-457d-b24b-c3aae32518ad" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="63636d3d-5f1b-4c7c-a44c-8528696103f9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_Flow_SignoffStatus xmlns="63636d3d-5f1b-4c7c-a44c-8528696103f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B40EC64-B67B-42A3-B554-A75F3B315B47}">
   <ds:schemaRefs>
@@ -3615,6 +3619,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{657ABD8F-7DC8-4718-B517-E95E15F3CC77}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="63636d3d-5f1b-4c7c-a44c-8528696103f9"/>
+    <ds:schemaRef ds:uri="16403ad3-3079-457d-b24b-c3aae32518ad"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE284E6E-E490-4114-883F-E61A0EFF386E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3631,21 +3652,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{657ABD8F-7DC8-4718-B517-E95E15F3CC77}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="63636d3d-5f1b-4c7c-a44c-8528696103f9"/>
-    <ds:schemaRef ds:uri="16403ad3-3079-457d-b24b-c3aae32518ad"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>